--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/66_Sakarya_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/66_Sakarya_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AF4823-7674-4DFE-9FD7-B173D65E8210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{996079EB-4870-494C-9CB3-BC4001C551AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{A8C0F764-430A-4610-9E6D-C0FA5C61A9E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{7D3FECE5-AA9E-4CB0-B4F1-EF89F68F465C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -966,13 +966,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F4D0647B-D207-4F38-8E03-2BCF3A4093E0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{885A6C9C-6AAF-45BD-9086-56FD29992A1E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{184B0C6D-55A8-42EC-B334-5B5B9D902D1F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BDFB1F2E-2130-4454-A8A4-8DB9EB8A104C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{57BF9532-F60C-47DA-84C6-3447A4809139}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D0CC651A-9CB8-4613-9F44-5205D523642C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B3C37BF9-5FAC-4815-8B2F-1A0939B414F1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CFF18576-9575-4154-80FA-2438BB23385A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D1BA14C6-8172-4EF3-864B-DD436FF208E8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A6EE26B4-AFD1-4C38-AF5B-8EEFA5A07EA3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C92A29EE-0A0F-4DE9-A3C7-1C7C29479026}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CE62641B-6E4B-4B88-95B5-5CE94C6DCAFE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{94E2C9D6-0B71-4AB0-BA63-0B601A86DFE1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{468CD8A1-C0A4-4D5C-A4A2-929934FA793B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963783F6-782A-4962-BE4E-B6330E4C2235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9801599-DF77-4625-92DF-C41170C69596}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2608,18 +2608,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98C05E5B-6728-47C0-A150-AB49C4999BEA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6397E717-22D6-4814-9ACA-3423398AE732}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B943C1B4-41F9-4DC8-A6EF-0BFB49C010F7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2EBDF189-5EF6-4837-953C-C285CE895400}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DBEC037C-BA05-4764-AAA3-972B406C4CAA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8DBC4759-9CB1-42C4-918F-F561E9A4B1F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A8AC670-90C0-4636-9161-25A685EFF88E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F30F74D-0200-4AE7-AE7E-99E0AF68067C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2086D17C-A929-4DC6-9C74-2F2718BB369C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5DD24E83-C212-45D6-BA72-8A0678FA6854}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0704D547-C808-4E3E-B7E7-6FCA8BB09CED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18D30129-30A2-42BA-88C8-4607D87CAA30}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F02879A-01A3-484A-890F-84546C4491D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBCD3DC3-19F7-4352-B920-6B4F08390C01}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{16E256E4-D468-4664-A456-282EF80364F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC207E01-FC87-43A3-95F4-B1BEEDA2378F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E682B637-F86B-453A-8FE0-952ADFBD9E4A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F18609C-8E4E-4481-A2E5-F62F821CD7F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{807AB2A9-0AFE-4A9F-B7EE-43C042DFD8F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{184F3328-E562-47E9-BDCA-4EB9AB80A872}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A4EB780-8D0E-4E08-ADED-877CF5DC8CB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51A85852-5A85-46B3-90A3-E6D09B0685D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5CD3EEE-9BA0-44BC-A239-EC7F1D7A92DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66A0A8A7-90C2-4396-8864-A3AE77737E29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2632,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55427DD-E19C-4E52-B69A-D4CA22BD4EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C781B88-F65D-4547-9DA8-4421D0CD9ACD}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3880,18 +3880,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{377128E2-D7B4-417A-B955-228EA3FC1EBB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F32ADEE0-C6CA-4B60-A47E-A039BEBB9DAC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4E8AD35-4181-40E9-A440-94CE1BACEF39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B68266E-8076-487E-A8CA-3DDE5ECB066E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2E9582BF-069B-4F5C-98A5-9D070787E5C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E7769BE-ADE3-4B57-B5CD-53FBD47A8C51}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B76497A-9D65-4D7B-8656-E128E7EBF644}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C383D604-3EEE-4627-BC37-58BABAD47B10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E02F0193-378A-4688-9C93-203D135DBA45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{428880AC-759B-42E2-B409-3B93C0157CA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE654B0C-B59D-4E47-BAED-44077F4D2300}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B826B85E-16AD-4F69-BF0D-4CB32F630BCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B616B68A-CE54-4E91-B9F4-AC0301F67DD1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4FD8EB2-8FD4-4D4B-B34C-52368298C22F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2508BA62-6BC5-48C1-93F3-6874E70A55B0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{040E242B-35E6-4662-9FB5-567111B9BF8F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DFCB8064-E03B-43D8-ABA0-4F9A0AF46A07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6CC10A2-6199-47FD-AA4F-5A7A7E1FD45E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43F179B4-3E30-4362-8C47-AA67764109B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFE9211D-E1A4-41BA-8E41-A452A3C48EC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0815D2AB-287B-41AB-AB04-A3045BCA1678}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA063C9F-9344-4873-B086-46ECBD307E77}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4342C4ED-C79B-4805-9B15-FC462230F214}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D05EC9C-E791-46D6-8C45-19D3BC1DAA2F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037C5916-05D3-45A8-AD45-247EEF9C6A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2D3C31-1B89-467F-A0ED-E7F5B22CDAAB}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5152,18 +5152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{686F8FBB-7EA4-4101-A0FD-9FC476100FCA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47AACA0B-2631-4BBB-B79C-D61CCA55E39F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF6BD661-C7C0-42C5-A6FB-950D9CFA375A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{29381DEB-926F-41C0-B12D-ED8EFC89E452}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3D3B991F-CF62-476F-8BAB-2BB82EBAEE6E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CF751F7-5432-42F5-B4DA-DCDA5B52967B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64CA26C1-DF8B-4A8C-A4E3-5EBCEF0F7331}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D48BFD6-4C08-4865-A41B-7EB66676BFB2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FE56A55-804B-4D20-A68E-7704582C0FED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7754D71-EFD2-4EEB-A1F8-14746E8B5EC3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDB5E116-47A1-4C79-BD17-0E82C84949A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF5A3561-7297-49D1-859B-1860387F39BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F48EE11F-36F4-422C-8BB9-82E354ADE9C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B71F2F2-A5AA-4452-ACBE-C8343DD1BBD0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D810B0D-BF59-4CE2-A8D0-02E8FC5390D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CAD6918F-0A91-4613-A302-522084312B76}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{47ABAA00-0F4A-4616-B77E-EE5FE194750B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58AAE37A-CA1B-4AE9-99EF-A55430F2DC96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09C9F66E-E40F-484A-AA60-7670961B327D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2962E3B-F929-4CA8-8B24-8FB2368BBFD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA6FE3FD-EF8B-486B-8A0F-0602F5784D18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3351C6F5-6FCD-4011-972A-C47B23BE7BEB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90BB06EC-A63D-4A1E-AD33-C774817F2C82}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA7DD2AB-3127-4DA6-AEAB-5EF07205D511}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5176,7 +5176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FBDC19-7224-44D5-BEFF-54427CDFAD55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7455E125-EB3C-4E83-8405-DD3392A34017}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6428,18 +6428,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F195608-9BB3-4AEA-B80A-918ED1D4659F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{075C7BDF-0660-48D8-A385-708094D293C8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34B2A9CD-5D28-42C2-B245-F059ED418341}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{22EAAD13-F382-412D-8C1E-DBCF0E30FEB9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{437B797B-208C-4A9D-8624-D4F6BA5424EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2627A70F-65CA-457A-8E31-7CA7E0859D97}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04EA0BE4-426C-41B6-8EC9-C39FD449EF2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02715E8B-5209-4A52-AE3A-F1131937E0A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07F4CA32-CABC-4F79-9F51-6FC350201672}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{060CCECA-FDFA-46B0-89C9-9FC5DEDC991E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12A1B2AA-828C-4FB7-9BE6-DEBB49F6098E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9D11EFD-9B9C-4484-A939-CAF19B30BF3F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{268B2E62-EA2E-41EE-85A9-618F61707889}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78509ACC-661E-4518-AE3E-561317517A00}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D58398F-7DE8-4782-AF32-660280BEAD1A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AED1620E-A7FF-4004-B5BA-D7328F4EB4A0}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3245AD38-5BB6-442D-A898-20B6E05B7538}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1DDEAEE9-5B12-4B50-A735-54DCC67B1E08}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3000D093-7755-4A9E-956B-18A10109F2BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B61ED738-4B4F-48AE-9708-16862EAFB001}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0784E0A3-DFCC-4EF0-B2F8-323CBDBD2794}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{609265D6-66B8-4C3B-9FAF-907CB5B42F6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8196B3A5-43BA-4105-837F-B00F1D6A7C61}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96077FD8-475B-47B4-B5C1-4803BE30F1D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6452,7 +6452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B76E37-B82E-4106-8702-F25F74C73FE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317B9F60-2E5B-4048-9EF1-5FA7EFB8B10A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7715,18 +7715,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6541CB4C-8648-4B6C-B945-7BBE02A4A99B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{070A93FA-D0B8-454D-A1C7-35F05D0590BD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F17195A-1044-4C88-B24A-49FCBBC3A584}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B5A6374-D54D-47BF-AC72-643FED06782D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6E1DD2CE-72D8-450A-82A7-990FCF9CDC44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{987A1766-441E-4D61-BA20-9C4B3698663A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B96C8481-1109-46A3-A868-2B141B7963F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B53355D8-EC6C-4620-AB9A-CCF925DFE3D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C2212A7-2257-4311-89C7-BD87AEC6FF2A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE4454DE-C99F-4CFD-9D5B-9592546C6147}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26AC7C72-AC0D-4C4F-8D27-E739E2062651}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC18E6A6-A894-4F49-84E0-D1DD4C791C91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27E28344-2476-4B73-8380-CD01AC9EEA64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5E06143-8F15-4E5B-BEDC-237DA6156BFC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{667F032D-6133-4D34-A9C6-C04DB52FD986}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CD052C9-8CC5-410D-8230-FF01ABC096E1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B24C7570-67FD-497F-8491-946DB70C61A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62406329-C2BE-49C6-BCB3-B4E87A58E785}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{692FCF41-8D6D-480B-BACC-3C3BFA68CA83}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3127179D-6142-45AC-93BB-9C4F79AC0FD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6B3865E-357A-4F55-92D3-64CB28AD182A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CDB8826-5F65-406E-B1DE-0C4A024DD04C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39B2C9C5-4067-44E5-ABAF-DA74D55D1C90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D6CA9D5-B49B-40FD-BC14-26D5A9EBB4BC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7739,7 +7739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97488314-D439-4869-8667-5D1C61EB523C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F194743-BFE5-4FEB-A41F-CAFBE85BB6DE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9002,18 +9002,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F18E250B-40A2-41AF-B3CC-F5CF3D314C99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36ED47C0-E4A0-42A3-893C-4A2394D5A7AF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FFA6F651-8A50-4E19-BB24-3A6EA4672D47}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07558C5D-2438-4D1B-B5C5-E16752EC6C99}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B0A59664-7B4D-43B2-AC96-CF7AC3EA48C5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92D83B51-811F-4AEE-BF0C-1784E737D30E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F90271A7-48FB-4305-A319-DBE40AAC9380}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63CD7520-40BA-4191-988E-A8FA7373EA3A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{539CDA12-5FA3-405E-B2CF-915CE3DE6C69}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73DE8CA7-9417-463D-B488-1713ACA95A4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00B8788C-DFB3-445C-BF33-B937E9DDAB56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B289F386-89EE-4203-BFE3-D88063566B0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE2CE450-8EF6-4801-A904-9E4F3C4574A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15B4DDDD-C687-49AA-9540-DE9E98B1E03F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B5702F52-ADA1-496D-B764-84DD1490EAE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2244DFBA-57EB-4740-BFA4-A2983A79461B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{10161D9F-432D-4D8C-9AB3-B64B3E3EEB6B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CCA3625A-2077-41E3-AD87-7C1CCC26BA79}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9B94B70-BF37-4ACF-803D-2F2575524D33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB0C198C-B286-4808-9832-06363217E8C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0AD6D89C-BC65-4025-B172-42B4C0118960}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FD28246-B15F-4A18-A407-D2A1BEC8A36D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11C765B6-DE9B-4243-9F92-130199F59C4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5D26697-9A49-460A-8E94-F30B891FA9F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9026,7 +9026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2456D983-52EF-4585-A7E4-89997194861A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310002B7-87F9-4E92-9898-BF1535B97581}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10289,18 +10289,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5953E62-4A91-46D7-862B-FC7CFC0D9C93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD1F9B22-B194-4A35-B00A-8110D8A8F736}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA1E4B73-F809-436A-9F25-487371E59C72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5891C98-B03C-4766-9008-BF8CE60B36AE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A14EAA62-8BF2-4A21-9B2E-F3B4F46F2238}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9422FB59-0CC1-4310-BF42-B6BEED499EC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1600E41-4224-466F-9164-2FB3F351349B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9349AC65-33E9-4AAC-A8B1-B67FFBA95AFD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E34F38B-B012-4622-862D-30C4EBA2D79E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5FA850A9-21E8-460B-849B-1EFEED1741B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E06E1D70-CE0E-4A8C-B0F7-56604B931D6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AE87421-692E-4C43-918C-D274D5A1E149}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E26FC095-FBC1-4EBC-B2A1-C03543B75A0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A6967E5-349C-40A1-97F0-43BB79FD0D0F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{871413CC-CB31-4D78-AAEF-BC6FE0186D35}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBAC212B-C6DF-4294-A59B-43219457AC07}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3E5E1209-0665-4030-A7BE-0C3333B3ABE5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4BADBBD4-6CAC-423D-8DCB-123651B89C5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{621F5FF4-A78E-4054-97DB-EA1CFCB9DAC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78DFCD3F-1B10-4187-9CBE-F939231B9DE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27D8AC88-31B9-4D50-A19A-DA60E271116B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7ED2964-392A-4BCB-A862-498F3926C8F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{731CDB3E-5DEA-40B7-BEEF-A9AD05AA3964}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F656DB23-EB71-4857-ABDE-CEA9F1CD5679}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10313,7 +10313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F72FF6-4081-46F1-B425-1FBFB1FB1833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FC1381-0E47-4040-A254-1DAED0281870}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11573,18 +11573,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0263749-AF83-49D6-84CB-F6EDDAA0AB27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F721BCB4-72D5-4995-8CB7-E66A9BA7C364}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB83D4D8-64D5-4B1C-8D9A-F6AC7491A7B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9EF24280-AC6A-408C-BF9E-A9278C7A5163}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1FFF7D86-B20B-468D-898C-45920D92FAF7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E94658E-9208-47B3-8FCA-1D2855C06F4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B529E9E9-E74A-4348-9FCC-5FA8E2A33FDC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF551D0A-C9DD-4899-8466-150A2AC8804F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41037EC2-16B3-427A-81C0-846EAC693124}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9464371-362C-4914-9B5C-6165B932A350}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DF48B48-889E-4E13-AC76-3CDE7E37EF61}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC283A7B-2E73-4019-BE28-C644EF04C1B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{610A0A71-4EE7-4D1D-84F3-20E24EAB4DF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9E5F844-6B9B-43D7-8261-7EABCD84CAC8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{613C4F70-934B-44C6-8DC0-186F74FF2AF9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F1752518-974C-40E0-86AF-CDFAF9686C56}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{80A7E3B9-0E8C-4615-A67C-AD3ED440AC11}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06B4B9F1-2BB3-4ADE-9350-69D0FCD84E5A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{316FB811-8F42-42EA-94CC-D83F9551F502}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A3EB035-28E6-4BB5-95C3-8B50B6BA5542}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{553C0948-FAF9-4731-96CD-935F3302D8AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{48318267-F288-4C5F-8CF7-F60C966A1A36}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{596487D3-7553-490D-8732-C2C29AD02475}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67D1DF4E-AA7C-46EB-841A-D75EBF6D5DC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11597,7 +11597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F385A398-DC5A-42B5-937D-E98AED4BC888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCA1C09-99B8-43A5-A6B2-3838FF6110D3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12857,18 +12857,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F939B051-4556-482E-B0A4-75E54C5C9C1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F559A005-F486-40BB-A660-24B29CD35459}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{664654F0-E41D-4505-B2D7-432F9F15C317}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03D5EFFD-D3B8-44B7-96B6-FC168356A01F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{646CEED1-9E53-4C85-898F-3C3A7697BE47}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5588DFE7-0B89-43A2-B9FF-A9137F84F494}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9ED3A812-B9A2-47D4-8C15-3567AF7E656A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E68D7785-4A30-45C9-9F7A-C84795F65834}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{404FF0BC-4A7D-4D48-B655-FD8F45ECA222}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BF2A025C-980A-478C-AA42-680E6B2EA56E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55E346E4-0FBF-4F3E-A341-A452F00EAEBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B40B1F52-020F-4C1F-BD44-A9498FE10696}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23B5E1CD-D80D-48F1-9345-5E950F3BDD70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D72D256A-FC2F-448D-B617-DB94C3DC0514}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E24DF70-EE82-4417-A667-4B64E56BDEF6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2AC99EF6-5882-450D-8AFB-1425014A2621}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{23698BD4-5051-4840-A958-48C8D53A8532}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0D7657D-5512-4FE2-9471-D55C25FC024E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDC72AF8-4E7A-4846-AFD2-A45E4EEE67B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86BDA33E-7089-49FD-8EB6-C7352474BF69}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA8060B1-C456-4F8D-92E7-414DE0F26427}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9603A3C-1741-4B05-8466-716B3E9A1CE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98F3B17C-475D-4491-A107-1EE055AFD254}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F0E2626-8D75-444A-BCB1-0312DA1658F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12881,7 +12881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F67E0F4-2141-4D1D-B3ED-066B771BEA31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79F373B-6280-4C35-9901-C14ED9A3D5B3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14141,18 +14141,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE8DAC59-1BC5-400D-AAFF-765B970EB9C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BD65D9F-45FA-497D-A27D-F6430A4F891E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{720D7583-1F20-4153-AE6E-4D58A108579C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2AC4F0F5-D013-4E9C-8435-7715A48CD84B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8F6CC102-21D6-4647-A6EC-27D8028C0809}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{671C9810-668A-47A2-9447-8ABCC00948B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A66AE409-9CBE-4431-9BAE-5145111F6197}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5D8B62D-DC48-4637-9A32-B0E6ADA84D6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81BAADD4-DC35-4BD0-8BFA-4660F312BDE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39E69CA4-9F83-4F85-B13B-2A6B2C14FAEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53075765-B4EF-43E4-93FF-867FAF0B92D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7948D3AC-F9DB-4B6C-8E10-54398C0033E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C250A8C-2197-4C75-9D31-EE160E158723}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8751E1E4-CECA-495F-B369-67B3D279B321}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2890A150-1046-498B-832F-D845DEB556F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4DC071A3-BF34-44C6-9ED4-C4CFEE7467C3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AA9640B6-B8D6-48CF-BDB3-1E78742ED77C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{729DD269-A4D4-4B69-8937-91CAB5C3D13A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{876A9EE8-AFAF-49F7-BE29-468D1BCB627D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B36DA314-0700-443B-82DC-CC81E50892F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76A35C8E-3199-4713-8D38-8543EDA2D1CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36E32327-9153-4B21-829B-DBB128BAFE89}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA9230BA-68AD-403C-B7F8-94765030AA1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBAF9951-72B2-4862-8653-342F5F3D63C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14165,7 +14165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81A257E-98D6-4F63-A469-6D6C2E71FDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8703B374-6A2B-4F3C-AF31-635BE2650B74}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15425,18 +15425,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20FAE43E-3640-4226-BF04-836F1F2F6CF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F0FB371-5B69-411C-A3CD-C20A6CDAAC18}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B4D2C5E-245B-469A-A8BC-87519E853503}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4241851-C9B9-4A46-A8C6-0F4AD6F8E860}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B0212550-B436-4290-839E-62B186C9D6A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D426472-AFDF-4032-AFB6-35C01E247888}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF4170E8-1721-4010-A389-1E1CA8B66624}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D03F689B-9339-446C-91F4-FF107FA8ADA9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD15B108-B2B1-467B-BD26-784D6D57D2B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0B8CAF3-9C97-4D4F-9383-BFBEDB191852}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5133CD5B-7B53-4FD8-A1C2-221EC20D7335}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D721D394-DE03-4DC9-BC7A-7FC895C674AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F877C93-63F1-4784-A441-77BBD4968B28}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E88249F8-14D4-4181-9283-EF647AD49547}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6901D529-C08D-4C6B-A3CD-02E97F64D23D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54128D8F-1CE6-462D-8404-6649DAE9FB87}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7AAF65B7-C9FD-430C-BE9B-DA83CA795520}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F0BAB33-06E6-4305-947B-6740C69FCA7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6B24F83-4535-4186-A29C-70D288119873}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F146B1B7-EE2C-4A6C-B8C3-C2B5A51DDA7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F5A8C7E-092D-43CB-AB76-564126DEC499}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C99D38AC-107E-495F-BD99-2FE727150A3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B33387C1-8B7E-4FE2-BD82-801B5A9187F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B24241DF-4B85-466D-A716-CBF3143BC9F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15449,7 +15449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18042B9F-6CD7-4DF4-B6F3-D3ECA4F82624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB0813-9B3A-478E-88DE-C5A9E8B176A4}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16709,18 +16709,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68F0D703-52DA-4209-8B6D-15E5B546048D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B25F49A2-2534-476F-B560-5CA97D56F41E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{72A08673-8EF5-48BF-BCB0-EE1CA19A778E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9EDCBDF7-05A3-4FE4-B86C-B1F1BAB0409D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8539BC7B-92FD-421A-8A51-A1BA2E13EF9C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92620CD7-FB5E-4781-BAE6-AD99E211CC57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A05CA34F-AE6A-4DA3-9625-49F48DBD996C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C60E48E2-BD48-46B0-9525-AB09FCA36B35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3E78B90-244B-4EBE-9045-85FE60D7506E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94C0C5C1-28A8-4029-869F-452658F96B70}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E454A465-2CE6-4DF7-9A37-6FD77D314BC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B3C3D67-6CD5-4445-9C98-F030BE385864}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17532618-DF73-473A-B345-D72E84F098C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98D893E7-A819-4EA7-9AE7-8ABF18000DA3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3A2DA96C-18A6-402D-B791-108A05A84E2F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{405397CB-5E85-40B3-A175-A9850EB7D53F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CCAC05D7-0B3C-401D-A669-DCD4F73AE9D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CECFCEAC-4D5B-4C47-9679-9972E25B099D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43F05B4F-047F-4825-8CE0-4F2CBC6E2A69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8D420F1-BF24-48D5-9AAC-112DAF0CC3A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{837FEA68-773B-4192-BFBC-3F70035BC793}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F690EEF-92EE-421D-A82F-91EEDEB6764A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEC7C36B-638D-4667-AF26-569DC41BA7CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1431F2EF-1506-45DE-88BB-EE7F80621054}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
